--- a/0-data/0-raw/tree2l.xlsx
+++ b/0-data/0-raw/tree2l.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohamed\Desktop\terrain_mesures_millan2020\arbres_mtg\arbre2\A2B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cirad.fr\AMAP - FSPM - Analyses\Allometries\0-data\0-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="A2B" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E109" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1053,7 +1053,7 @@
       <c r="U39" s="12"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D40" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K40">
@@ -1061,7 +1061,7 @@
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D41" t="s">
+      <c r="B41" t="s">
         <v>36</v>
       </c>
       <c r="G41">
@@ -1109,7 +1109,7 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E42" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I42" s="9"/>
@@ -1118,7 +1118,7 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E43" t="s">
+      <c r="C43" t="s">
         <v>36</v>
       </c>
       <c r="G43" s="7">
@@ -1133,7 +1133,7 @@
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D44" t="s">
+      <c r="B44" t="s">
         <v>37</v>
       </c>
       <c r="G44">
@@ -1181,7 +1181,7 @@
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E45" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I45" s="9"/>
@@ -1190,7 +1190,7 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E46" t="s">
+      <c r="C46" t="s">
         <v>36</v>
       </c>
       <c r="G46" s="7">
@@ -1205,7 +1205,7 @@
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D47" t="s">
+      <c r="B47" t="s">
         <v>39</v>
       </c>
       <c r="G47">
@@ -1222,7 +1222,7 @@
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E48" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I48" s="9"/>
@@ -1230,8 +1230,8 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="49" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E49" t="s">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
         <v>36</v>
       </c>
       <c r="G49" s="7">
@@ -1245,11 +1245,11 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="50" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D50" t="s">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="C50" s="5"/>
       <c r="G50">
         <v>8</v>
       </c>
@@ -1263,8 +1263,8 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="51" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E51" s="4" t="s">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C51" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I51" s="9"/>
@@ -1272,8 +1272,8 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="52" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E52" t="s">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
         <v>36</v>
       </c>
       <c r="G52" s="7">
@@ -1318,11 +1318,11 @@
         <v>0.31279999999999997</v>
       </c>
     </row>
-    <row r="53" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D53" t="s">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
         <v>41</v>
       </c>
-      <c r="E53" s="5"/>
+      <c r="C53" s="5"/>
       <c r="G53">
         <v>7.8</v>
       </c>
@@ -1367,8 +1367,8 @@
         <v>3.5798999999999999</v>
       </c>
     </row>
-    <row r="54" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E54" s="4" t="s">
+    <row r="54" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C54" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I54" s="9"/>
@@ -1376,8 +1376,8 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="55" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E55" t="s">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
         <v>36</v>
       </c>
       <c r="G55" s="7">
@@ -1391,11 +1391,11 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="56" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D56" t="s">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
         <v>42</v>
       </c>
-      <c r="E56" s="5"/>
+      <c r="C56" s="5"/>
       <c r="G56">
         <v>8</v>
       </c>
@@ -1409,8 +1409,8 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="57" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E57" s="4" t="s">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C57" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I57" s="10"/>
@@ -1418,8 +1418,8 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="58" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E58" t="s">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
         <v>36</v>
       </c>
       <c r="G58" s="7">
@@ -1464,11 +1464,11 @@
         <v>0.3836</v>
       </c>
     </row>
-    <row r="59" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D59" t="s">
+    <row r="59" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
         <v>43</v>
       </c>
-      <c r="E59" s="5"/>
+      <c r="C59" s="5"/>
       <c r="G59">
         <v>6.5</v>
       </c>
@@ -1482,8 +1482,8 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="60" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E60" s="4" t="s">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C60" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I60" s="10"/>
@@ -1491,8 +1491,8 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="61" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E61" t="s">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
         <v>36</v>
       </c>
       <c r="G61" s="7">
@@ -1506,11 +1506,11 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="62" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D62" t="s">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
         <v>44</v>
       </c>
-      <c r="E62" s="5"/>
+      <c r="C62" s="5"/>
       <c r="G62">
         <v>5.8</v>
       </c>
@@ -1524,8 +1524,8 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="63" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E63" s="4" t="s">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C63" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I63" s="10"/>
@@ -1533,8 +1533,8 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="64" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E64" t="s">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
         <v>36</v>
       </c>
       <c r="G64" s="7">
@@ -1579,11 +1579,11 @@
         <v>0.50619999999999998</v>
       </c>
     </row>
-    <row r="65" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D65" t="s">
+    <row r="65" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
         <v>45</v>
       </c>
-      <c r="E65" s="5"/>
+      <c r="C65" s="5"/>
       <c r="G65">
         <v>8</v>
       </c>
@@ -1597,8 +1597,8 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="66" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E66" s="4" t="s">
+    <row r="66" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C66" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I66" s="9"/>
@@ -1606,8 +1606,8 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="67" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E67" t="s">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
         <v>36</v>
       </c>
       <c r="G67" s="7">
@@ -1652,11 +1652,11 @@
         <v>0.4108</v>
       </c>
     </row>
-    <row r="68" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D68" t="s">
+    <row r="68" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
         <v>46</v>
       </c>
-      <c r="E68" s="5"/>
+      <c r="C68" s="5"/>
       <c r="G68">
         <v>12.5</v>
       </c>
@@ -1670,8 +1670,8 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="69" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E69" s="4" t="s">
+    <row r="69" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C69" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I69" s="9"/>
@@ -1679,8 +1679,8 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="70" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E70" t="s">
+    <row r="70" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
         <v>36</v>
       </c>
       <c r="G70">
@@ -1694,8 +1694,8 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="71" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D71" t="s">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
         <v>47</v>
       </c>
       <c r="G71" s="7">
@@ -1742,8 +1742,8 @@
         <v>2.9118000000000004</v>
       </c>
     </row>
-    <row r="72" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E72" s="4" t="s">
+    <row r="72" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C72" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I72" s="9"/>
@@ -1751,8 +1751,8 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="73" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E73" t="s">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
         <v>36</v>
       </c>
       <c r="G73" s="7">
@@ -1766,8 +1766,8 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="74" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D74" t="s">
+    <row r="74" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
         <v>48</v>
       </c>
       <c r="G74">
@@ -1783,8 +1783,8 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="75" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E75" s="4" t="s">
+    <row r="75" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C75" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I75" s="9"/>
@@ -1792,8 +1792,8 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="76" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E76" t="s">
+    <row r="76" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
         <v>36</v>
       </c>
       <c r="G76" s="7">
@@ -1838,8 +1838,8 @@
         <v>0.2797</v>
       </c>
     </row>
-    <row r="77" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D77" t="s">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
         <v>49</v>
       </c>
       <c r="G77">
@@ -1855,8 +1855,8 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="78" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E78" s="4" t="s">
+    <row r="78" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C78" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I78" s="9"/>
@@ -1864,8 +1864,8 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="79" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E79" t="s">
+    <row r="79" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
         <v>36</v>
       </c>
       <c r="G79" s="7">
@@ -1910,8 +1910,8 @@
         <v>0.38919999999999999</v>
       </c>
     </row>
-    <row r="80" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D80" t="s">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
         <v>50</v>
       </c>
       <c r="G80">
@@ -1927,8 +1927,8 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="81" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E81" s="4" t="s">
+    <row r="81" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C81" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I81" s="9"/>
@@ -1936,8 +1936,8 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="82" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E82" t="s">
+    <row r="82" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
         <v>36</v>
       </c>
       <c r="G82" s="7">
@@ -1951,8 +1951,8 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="83" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D83" t="s">
+    <row r="83" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
         <v>51</v>
       </c>
       <c r="G83">
@@ -1968,8 +1968,8 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="84" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E84" s="4" t="s">
+    <row r="84" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C84" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I84" s="9"/>
@@ -1977,8 +1977,8 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="85" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E85" t="s">
+    <row r="85" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
         <v>36</v>
       </c>
       <c r="G85" s="7">
@@ -1992,8 +1992,8 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="86" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D86" t="s">
+    <row r="86" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
         <v>52</v>
       </c>
       <c r="G86">
@@ -2009,8 +2009,8 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="87" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E87" s="4" t="s">
+    <row r="87" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C87" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I87" s="9"/>
@@ -2018,8 +2018,8 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="88" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E88" t="s">
+    <row r="88" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
         <v>36</v>
       </c>
       <c r="G88" s="7">
@@ -2033,8 +2033,8 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="89" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D89" t="s">
+    <row r="89" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
         <v>53</v>
       </c>
       <c r="G89">
@@ -2050,8 +2050,8 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="90" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E90" s="4" t="s">
+    <row r="90" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C90" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I90" s="9"/>
@@ -2059,8 +2059,8 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="91" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E91" t="s">
+    <row r="91" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
         <v>36</v>
       </c>
       <c r="G91" s="7">
@@ -2105,8 +2105,8 @@
         <v>0.3503</v>
       </c>
     </row>
-    <row r="92" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D92" t="s">
+    <row r="92" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
         <v>54</v>
       </c>
       <c r="G92">
@@ -2122,8 +2122,8 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="93" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E93" s="4" t="s">
+    <row r="93" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C93" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I93" s="9"/>
@@ -2131,8 +2131,8 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="94" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E94" t="s">
+    <row r="94" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
         <v>36</v>
       </c>
       <c r="G94" s="7">
@@ -2177,8 +2177,8 @@
         <v>0.31379999999999997</v>
       </c>
     </row>
-    <row r="95" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D95" t="s">
+    <row r="95" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
         <v>55</v>
       </c>
       <c r="G95">
@@ -2194,8 +2194,8 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="96" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E96" s="4" t="s">
+    <row r="96" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C96" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I96" s="9"/>
@@ -2203,8 +2203,8 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="97" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E97" t="s">
+    <row r="97" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
         <v>36</v>
       </c>
       <c r="G97" s="7">
@@ -2218,8 +2218,8 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="98" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D98" t="s">
+    <row r="98" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
         <v>56</v>
       </c>
       <c r="G98">
@@ -2266,8 +2266,8 @@
         <v>2.6030999999999995</v>
       </c>
     </row>
-    <row r="99" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E99" s="4" t="s">
+    <row r="99" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C99" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I99" s="9"/>
@@ -2275,8 +2275,8 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="100" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E100" t="s">
+    <row r="100" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
         <v>36</v>
       </c>
       <c r="G100" s="7">
@@ -2290,8 +2290,8 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="101" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D101" t="s">
+    <row r="101" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
         <v>57</v>
       </c>
       <c r="G101">
@@ -2307,8 +2307,8 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="102" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E102" s="4" t="s">
+    <row r="102" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C102" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I102" s="9"/>
@@ -2316,8 +2316,8 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="103" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E103" t="s">
+    <row r="103" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
         <v>36</v>
       </c>
       <c r="G103" s="7">
@@ -2331,8 +2331,8 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="104" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D104" t="s">
+    <row r="104" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
         <v>58</v>
       </c>
       <c r="G104">
@@ -2348,8 +2348,8 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="105" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E105" s="4" t="s">
+    <row r="105" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C105" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I105" s="9"/>
@@ -2357,8 +2357,8 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="106" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E106" t="s">
+    <row r="106" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
         <v>36</v>
       </c>
       <c r="G106" s="7">
@@ -2372,8 +2372,8 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="107" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D107" t="s">
+    <row r="107" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
         <v>59</v>
       </c>
       <c r="G107">
@@ -2389,8 +2389,8 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="108" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E108" s="4" t="s">
+    <row r="108" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C108" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I108" s="9"/>
@@ -2398,8 +2398,8 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="109" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E109" t="s">
+    <row r="109" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
         <v>36</v>
       </c>
       <c r="G109" s="7">
@@ -2413,8 +2413,8 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="110" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D110" t="s">
+    <row r="110" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
         <v>60</v>
       </c>
       <c r="G110">
@@ -2430,8 +2430,8 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="111" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E111" s="4" t="s">
+    <row r="111" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C111" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I111" s="9"/>
@@ -2439,8 +2439,8 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="112" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E112" t="s">
+    <row r="112" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
         <v>36</v>
       </c>
       <c r="G112" s="7">
@@ -2454,8 +2454,8 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="113" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D113" t="s">
+    <row r="113" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
         <v>61</v>
       </c>
       <c r="G113">
@@ -2471,8 +2471,8 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="114" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E114" s="4" t="s">
+    <row r="114" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C114" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I114" s="9"/>
@@ -2480,8 +2480,8 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="115" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E115" t="s">
+    <row r="115" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
         <v>36</v>
       </c>
       <c r="G115" s="7">
@@ -2526,8 +2526,8 @@
         <v>1.0598999999999998</v>
       </c>
     </row>
-    <row r="116" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D116" t="s">
+    <row r="116" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
         <v>62</v>
       </c>
       <c r="G116">
@@ -2543,8 +2543,8 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="117" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E117" s="4" t="s">
+    <row r="117" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C117" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I117" s="9"/>
@@ -2552,8 +2552,8 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="118" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E118" t="s">
+    <row r="118" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
         <v>36</v>
       </c>
       <c r="G118" s="7">
@@ -2567,8 +2567,8 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="119" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D119" t="s">
+    <row r="119" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
         <v>63</v>
       </c>
       <c r="G119">
@@ -2584,8 +2584,8 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="120" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E120" s="4" t="s">
+    <row r="120" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C120" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I120" s="9"/>
@@ -2593,8 +2593,8 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="121" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E121" t="s">
+    <row r="121" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
         <v>36</v>
       </c>
       <c r="G121" s="7">
@@ -2608,8 +2608,8 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="122" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D122" t="s">
+    <row r="122" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
         <v>64</v>
       </c>
       <c r="G122">
@@ -2663,6 +2663,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D817E2E441AD8840AD152F485CF91FFD" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="9bd92fc451d28d7a43c1e2d68c8f297e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3bb3ef3-874e-4bfe-a810-81c575a8e62c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6122410798bbeb3d5138414ef9c1dd21" ns2:_="">
     <xsd:import namespace="f3bb3ef3-874e-4bfe-a810-81c575a8e62c"/>
@@ -2794,15 +2803,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2810,13 +2810,43 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D80988E-4B4D-49B9-A1F9-AC144F5CAAC3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{619B2053-DEE9-4CE2-A534-3F102BAA2AE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{619B2053-DEE9-4CE2-A534-3F102BAA2AE7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D80988E-4B4D-49B9-A1F9-AC144F5CAAC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f3bb3ef3-874e-4bfe-a810-81c575a8e62c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{159FF80D-73D9-43D0-B08F-5918210AB4B0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{159FF80D-73D9-43D0-B08F-5918210AB4B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f3bb3ef3-874e-4bfe-a810-81c575a8e62c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/0-data/0-raw/tree2l.xlsx
+++ b/0-data/0-raw/tree2l.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="79">
   <si>
     <t>CODE:</t>
   </si>
@@ -219,9 +219,6 @@
   </si>
   <si>
     <t>^&lt;S28</t>
-  </si>
-  <si>
-    <t>2018-2019</t>
   </si>
   <si>
     <t>ID</t>
@@ -640,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="I123" sqref="I123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,7 +713,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -891,7 +888,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
@@ -899,7 +896,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -907,7 +904,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -915,7 +912,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -923,7 +920,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -931,7 +928,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
         <v>27</v>
@@ -939,7 +936,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
@@ -947,7 +944,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
         <v>27</v>
@@ -955,7 +952,7 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
         <v>27</v>
@@ -963,7 +960,7 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
         <v>27</v>
@@ -971,7 +968,7 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
         <v>27</v>
@@ -984,7 +981,7 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>26</v>
@@ -999,42 +996,42 @@
         <v>34</v>
       </c>
       <c r="K38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L38" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="L38" s="11" t="s">
+      <c r="M38" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="M38" s="11" t="s">
+      <c r="N38" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="N38" s="11" t="s">
+      <c r="O38" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="O38" s="11" t="s">
+      <c r="P38" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="P38" s="11" t="s">
+      <c r="Q38" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="Q38" s="11" t="s">
+      <c r="R38" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="R38" s="11" t="s">
+      <c r="S38" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="S38" s="12" t="s">
+      <c r="T38" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="T38" s="12" t="s">
+      <c r="U38" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="U38" s="12" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -2618,8 +2615,8 @@
       <c r="H122">
         <v>17.55</v>
       </c>
-      <c r="I122" s="9" t="s">
-        <v>65</v>
+      <c r="I122" s="9">
+        <v>2018</v>
       </c>
       <c r="K122" s="8">
         <v>2045</v>
@@ -2663,15 +2660,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D817E2E441AD8840AD152F485CF91FFD" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="9bd92fc451d28d7a43c1e2d68c8f297e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3bb3ef3-874e-4bfe-a810-81c575a8e62c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6122410798bbeb3d5138414ef9c1dd21" ns2:_="">
     <xsd:import namespace="f3bb3ef3-874e-4bfe-a810-81c575a8e62c"/>
@@ -2803,6 +2791,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2810,14 +2807,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{619B2053-DEE9-4CE2-A534-3F102BAA2AE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D80988E-4B4D-49B9-A1F9-AC144F5CAAC3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2835,18 +2824,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{619B2053-DEE9-4CE2-A534-3F102BAA2AE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{159FF80D-73D9-43D0-B08F-5918210AB4B0}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="f3bb3ef3-874e-4bfe-a810-81c575a8e62c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f3bb3ef3-874e-4bfe-a810-81c575a8e62c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>